--- a/data/variable_descriptions_for_fecal_pH_final.xlsx
+++ b/data/variable_descriptions_for_fecal_pH_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Box\project_davidlab\LAD_LAB_Personnel\Jeff\2 NICU pH redox\infant_microbiome_pH_redox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EE89B8-50B5-4029-8CBA-7A9E9CC7AA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A03DD2-4ACE-4D90-B496-2AAEC3F32401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>DOL</t>
   </si>
@@ -182,27 +171,6 @@
     <t>currently on antibiotics</t>
   </si>
   <si>
-    <t>donor breastmilk</t>
-  </si>
-  <si>
-    <t>human milk fortifier</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Prolacta brand formula</t>
-  </si>
-  <si>
-    <t>Benepro brand formula</t>
-  </si>
-  <si>
-    <t>Enfacare brand formula</t>
-  </si>
-  <si>
-    <t>Enfamil brand formula</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -216,6 +184,48 @@
   </si>
   <si>
     <t>feeding information</t>
+  </si>
+  <si>
+    <t>donor breastmilk (pasteurized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human milk fortifier, intact protein, bovine milk-derived </t>
+  </si>
+  <si>
+    <t>human milk fortifier, human milk-derived</t>
+  </si>
+  <si>
+    <t>HPCL human milk fortifier, hydrolyzed protein, bovine milk-derived  </t>
+  </si>
+  <si>
+    <t>supplemental protein</t>
+  </si>
+  <si>
+    <t>supplemental fat emulsion</t>
+  </si>
+  <si>
+    <t>medium-chain triglyceride oil</t>
+  </si>
+  <si>
+    <t>formula, preterm transitional</t>
+  </si>
+  <si>
+    <t>formula, preterm</t>
+  </si>
+  <si>
+    <t>daysoffabx</t>
+  </si>
+  <si>
+    <t>time since last antibiotic exposure</t>
+  </si>
+  <si>
+    <t>postnatalabx</t>
+  </si>
+  <si>
+    <t>duration of initial post-birth antibiotics</t>
+  </si>
+  <si>
+    <t>hours or days</t>
   </si>
 </sst>
 </file>
@@ -267,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -553,24 +563,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
@@ -584,7 +594,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -621,88 +631,88 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -711,81 +721,81 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>36</v>
@@ -794,10 +804,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>36</v>
@@ -806,10 +816,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>36</v>
@@ -818,10 +828,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>36</v>
@@ -830,7 +840,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>36</v>
@@ -839,7 +852,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>36</v>
@@ -848,10 +864,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>36</v>
@@ -860,21 +876,45 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
